--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_276.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_276.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3342175066312997</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(37.04, 43.18), (1.6, 11.26)]</t>
+          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(38.2, 41.06), (251.5, 255.38)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:44.300000', '0:01:07.100000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2125874125874126</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(130.84, 135.98), (2.64, 7.3)]</t>
+          <t>[('0:00:00.300000', '0:00:03.640000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:48.420000', '0:00:58.560000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2873563218390804</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>jaah_27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_36</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06728778467908902</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['E:min7', 'A:7', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(42.52, 55.62)]</t>
+          <t>[['A:min7', 'D:7', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(22.3, 49.66)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:08.780000', '0:00:12.930000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:54.460000', '0:01:01.210000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3625</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1806020066889632</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>[['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(154.76, 159.84)]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(38.041, 42.375)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:02:09.060000', '0:02:14.200000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:04.160000', '0:00:06.700000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2223837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj'], ['E:maj/B', 'B:maj', 'B:7', 'E:maj/B']]</t>
+          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(40.49, 50.26), (0.522, 7.205)]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(54.18, 65.36), (125.76, 141.14)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:01.880000', '0:01:07.800000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_81</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.04551282051282052</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb', 'B:dim7', 'F/5']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Ab', 'A:dim7', 'Eb']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(7.67, 10.35)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.6, 4.0)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2575757575757576</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'F:maj', 'F:7', 'Bb']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.425</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E:7/3', 'A']]</t>
+          <t>[['C', 'G', 'D'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(10.675, 20.379)]</t>
+          <t>[['A', 'E', 'B'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(17.443474, 24.856984)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:03.117845', '0:00:14.158934'), ('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:35.080113', '0:00:43.578616'), ('0:00:32.920657', '0:00:39.410634')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2181122448979592</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396), (118.584331, 127.280204)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(222.98, 230.9), (55.62, 63.08)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2223837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(103.0, 122.84)]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(59.68, 65.78)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:10.634761', '0:00:19.597664')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.74, 27.08)]</t>
+          <t>[('0:00:05.800000', '0:00:15.900000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G', 'C/5']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(59.182426, 66.310952)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(14.450219, 23.088042)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(70.98, 80.44), (18.12, 24.54)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32), (61.48, 63.58)]</t>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88)]</t>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2287581699346405</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'A']]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(6.886543, 14.990307)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(34.081102, 39.375251)]</t>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(142.14, 146.8)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(56.72, 58.88)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2859477124183006</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'G', 'A', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D', 'G', 'G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(23.725555, 38.772086)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.608639, 26.921541)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
